--- a/99_Project/04_[Dacon]_소설 작가 분류 AI 경진대회/02_나의코드/01_딥러닝/모델구조기록/1D_CNN + FastText.xlsx
+++ b/99_Project/04_[Dacon]_소설 작가 분류 AI 경진대회/02_나의코드/01_딥러닝/모델구조기록/1D_CNN + FastText.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>모델구조 01</t>
   </si>
@@ -36,9 +36,21 @@
     <t>Dropout(0.5)</t>
   </si>
   <si>
+    <t>Dropout(0.3)</t>
+  </si>
+  <si>
+    <t>Dropout(0.2)</t>
+  </si>
+  <si>
     <t>Conv1D(128, 3, 'same', mish, 1)</t>
   </si>
   <si>
+    <t>Conv1D(64, 3, 'same', mish, 1)</t>
+  </si>
+  <si>
+    <t>Conv1D(50, 3, 'same', mish, 1)</t>
+  </si>
+  <si>
     <t>GlobalAveragePooling1D()</t>
   </si>
   <si>
@@ -48,20 +60,41 @@
     <t>Dense(128, 'mish')</t>
   </si>
   <si>
+    <t>Dense(64, 'mish')</t>
+  </si>
+  <si>
+    <t>Dense(50, 'mish')</t>
+  </si>
+  <si>
     <t>Dense(5, 'softmax')</t>
   </si>
   <si>
+    <t>loss='sparse_categorical_crossentropy', optimizer=Adam(learning_rate=0.01)</t>
+  </si>
+  <si>
+    <t>loss='sparse_categorical_crossentropy', optimizer=Adam(learning_rate=0.005)</t>
+  </si>
+  <si>
     <t>아아아~ 이거 아닌거 같은데 기록해둘걸</t>
   </si>
   <si>
     <t>validation_log_loss = 0.7052005379782789</t>
+  </si>
+  <si>
+    <t>Conv1D(50, 7, 'same', mish, 1)</t>
+  </si>
+  <si>
+    <t>Conv1D(64, 3, 'same', relu, 1)</t>
+  </si>
+  <si>
+    <t>Dense(64, relu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -76,8 +109,18 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Monospace"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +139,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF383838"/>
+        <bgColor rgb="FF383838"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -103,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -121,6 +176,15 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,8 +402,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="38.0"/>
-    <col customWidth="1" min="4" max="4" width="33.71"/>
+    <col customWidth="1" min="1" max="1" width="75.57"/>
+    <col customWidth="1" min="2" max="3" width="72.86"/>
+    <col customWidth="1" min="4" max="4" width="74.0"/>
     <col customWidth="1" min="5" max="5" width="30.71"/>
     <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
@@ -384,86 +449,160 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.703851857440684</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.717272563668276</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.701986663857706</v>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
@@ -491,20 +630,92 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.703851857440684</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3"/>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
